--- a/doc_ex2/doc/Algo2 BM3 ts2 comparison.xlsx
+++ b/doc_ex2/doc/Algo2 BM3 ts2 comparison.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -195,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -335,6 +335,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -342,13 +353,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -376,9 +390,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -699,7 +711,7 @@
   <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="E2" sqref="E2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
@@ -716,26 +728,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.25" thickBot="1" x14ac:dyDescent="1">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="H1" s="7" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7"/>
       <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -752,7 +764,7 @@
       <c r="D2">
         <v>35.2102548886999</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="14">
         <v>710.93479887847798</v>
       </c>
       <c r="F2" t="s">
@@ -786,7 +798,7 @@
         <f>(L2+M2+N2)/3</f>
         <v>7.4776329246233928</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="4">
         <f>AVERAGE(O2:O32)</f>
         <v>5.3248432722698826</v>
       </c>
@@ -804,7 +816,7 @@
       <c r="D3">
         <v>35.2102548886999</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>710.93479887847798</v>
       </c>
       <c r="F3" t="s">
@@ -852,7 +864,7 @@
       <c r="D4">
         <v>35.210249253213497</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>710.92159060152301</v>
       </c>
       <c r="F4" t="s">
@@ -900,7 +912,7 @@
       <c r="D5">
         <v>35.2101756620877</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>710.90535134854895</v>
       </c>
       <c r="F5" t="s">
@@ -948,7 +960,7 @@
       <c r="D6">
         <v>35.210145277287999</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>710.72063028150103</v>
       </c>
       <c r="F6" t="s">
@@ -996,7 +1008,7 @@
       <c r="D7">
         <v>35.2102548886999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>710.93479887847798</v>
       </c>
       <c r="F7" t="s">
@@ -1044,7 +1056,7 @@
       <c r="D8">
         <v>35.210207423797598</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>710.78306081931601</v>
       </c>
       <c r="F8" t="s">
@@ -1092,7 +1104,7 @@
       <c r="D9">
         <v>35.2102548886999</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>710.93479887847798</v>
       </c>
       <c r="F9" t="s">
@@ -1140,7 +1152,7 @@
       <c r="D10">
         <v>35.210175411817801</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>710.74852344698797</v>
       </c>
       <c r="F10" t="s">
@@ -1188,7 +1200,7 @@
       <c r="D11">
         <v>35.210050581227797</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>710.62788052011797</v>
       </c>
       <c r="F11" t="s">
@@ -1236,7 +1248,7 @@
       <c r="D12">
         <v>35.2100709814735</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>711.12063829455201</v>
       </c>
       <c r="F12" t="s">
@@ -1284,7 +1296,7 @@
       <c r="D13">
         <v>35.209868608583598</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>706.63762904220698</v>
       </c>
       <c r="F13" t="s">
@@ -1332,7 +1344,7 @@
       <c r="D14">
         <v>35.210215724237003</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>710.83069223724601</v>
       </c>
       <c r="F14" t="s">
@@ -1380,7 +1392,7 @@
       <c r="D15">
         <v>35.210232141240802</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>710.86207871838496</v>
       </c>
       <c r="F15" t="s">
@@ -1428,7 +1440,7 @@
       <c r="D16">
         <v>35.210211874723498</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>710.81382607927003</v>
       </c>
       <c r="F16" t="s">
@@ -1476,7 +1488,7 @@
       <c r="D17">
         <v>35.210141031457297</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>710.76375825207401</v>
       </c>
       <c r="F17" t="s">
@@ -1524,7 +1536,7 @@
       <c r="D18">
         <v>35.210175411817801</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>710.74852344698797</v>
       </c>
       <c r="F18" t="s">
@@ -1572,7 +1584,7 @@
       <c r="D19">
         <v>35.210188207587599</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>710.80655969820896</v>
       </c>
       <c r="F19" t="s">
@@ -1620,7 +1632,7 @@
       <c r="D20">
         <v>35.2102548886999</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>710.93479887847798</v>
       </c>
       <c r="F20" t="s">
@@ -1668,7 +1680,7 @@
       <c r="D21">
         <v>35.210175411817801</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>710.74852344698797</v>
       </c>
       <c r="F21" t="s">
@@ -1716,7 +1728,7 @@
       <c r="D22">
         <v>35.210207423797598</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>710.78306081931601</v>
       </c>
       <c r="F22" t="s">
@@ -1764,7 +1776,7 @@
       <c r="D23">
         <v>35.2102174341466</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>710.84701406743295</v>
       </c>
       <c r="F23" t="s">
@@ -1812,7 +1824,7 @@
       <c r="D24">
         <v>35.2102548886999</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>710.93479887847798</v>
       </c>
       <c r="F24" t="s">
@@ -1860,7 +1872,7 @@
       <c r="D25">
         <v>35.210226272489599</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>710.85450334344</v>
       </c>
       <c r="F25" t="s">
@@ -1908,7 +1920,7 @@
       <c r="D26">
         <v>35.209935120299299</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>708.83261706268297</v>
       </c>
       <c r="F26" t="s">
@@ -1956,7 +1968,7 @@
       <c r="D27">
         <v>35.210013099509602</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>708.446878113803</v>
       </c>
       <c r="F27" t="s">
@@ -2004,7 +2016,7 @@
       <c r="D28">
         <v>35.210050581227797</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>710.62788052011797</v>
       </c>
       <c r="F28" t="s">
@@ -2052,7 +2064,7 @@
       <c r="D29">
         <v>35.209946390164198</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>710.47704989135104</v>
       </c>
       <c r="F29" t="s">
@@ -2100,7 +2112,7 @@
       <c r="D30">
         <v>35.2098172839951</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>708.08556088917396</v>
       </c>
       <c r="F30" t="s">
@@ -2148,7 +2160,7 @@
       <c r="D31">
         <v>35.209853075975303</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>707.18976539444395</v>
       </c>
       <c r="F31" t="s">
@@ -2196,7 +2208,7 @@
       <c r="D32">
         <v>35.210000977891099</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>709.44892494008798</v>
       </c>
       <c r="F32" t="s">
